--- a/ExcelData/File/5000_AMLProductIdList_new.xlsx
+++ b/ExcelData/File/5000_AMLProductIdList_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\ExcelData\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F84493-1650-43ED-A2FA-7E7BCD9019B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBC0F37-5C4C-4689-A94C-AFEB83C38C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -810,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -2295,12 +2295,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -2315,7 +2315,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -2335,7 +2335,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -2365,7 +2365,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -2375,7 +2375,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -2425,12 +2425,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -2530,7 +2530,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -2550,7 +2550,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -2575,17 +2575,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -2860,12 +2860,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -2880,7 +2880,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -2910,7 +2910,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -3324,12 +3324,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -3344,7 +3344,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -3364,7 +3364,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -3394,7 +3394,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -3404,7 +3404,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -3454,12 +3454,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -3559,7 +3559,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -3579,7 +3579,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -3604,17 +3604,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -3889,12 +3889,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -3909,7 +3909,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -3939,7 +3939,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -4353,12 +4353,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -4373,7 +4373,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -4393,7 +4393,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -4423,7 +4423,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -4433,7 +4433,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -4483,12 +4483,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -4588,7 +4588,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -4608,7 +4608,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -4633,17 +4633,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -4918,12 +4918,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -4938,7 +4938,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -4968,7 +4968,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -5382,12 +5382,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -5402,7 +5402,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -5422,7 +5422,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -5452,7 +5452,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -5462,7 +5462,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -5512,12 +5512,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -5617,7 +5617,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -5637,7 +5637,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -5662,17 +5662,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -5947,12 +5947,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -5967,7 +5967,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -5997,7 +5997,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -6411,12 +6411,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -6431,7 +6431,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -6451,7 +6451,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -6481,7 +6481,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -6491,7 +6491,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -6541,12 +6541,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -6646,7 +6646,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -6666,7 +6666,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -6691,17 +6691,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -6976,12 +6976,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -6996,7 +6996,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -7026,7 +7026,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -7440,12 +7440,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -7460,7 +7460,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -7480,7 +7480,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -7510,7 +7510,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -7520,7 +7520,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -7570,12 +7570,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -7675,7 +7675,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -7695,7 +7695,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -7720,17 +7720,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -8005,12 +8005,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -8025,7 +8025,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -8055,7 +8055,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -8469,12 +8469,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -8489,7 +8489,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -8509,7 +8509,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -8539,7 +8539,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -8549,7 +8549,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -8599,12 +8599,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -8704,7 +8704,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -8724,7 +8724,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -8749,17 +8749,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -9034,12 +9034,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -9054,7 +9054,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -9084,7 +9084,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -9498,12 +9498,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -9518,7 +9518,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -9538,7 +9538,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -9568,7 +9568,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -9578,7 +9578,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -9628,12 +9628,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -9733,7 +9733,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -9753,7 +9753,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -9778,17 +9778,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -10063,12 +10063,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -10083,7 +10083,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -10113,7 +10113,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -10527,12 +10527,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -10547,7 +10547,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -10567,7 +10567,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -10597,7 +10597,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -10607,7 +10607,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -10657,12 +10657,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -10762,7 +10762,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -10782,7 +10782,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -10807,17 +10807,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -11092,12 +11092,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -11112,7 +11112,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -11142,7 +11142,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -11556,12 +11556,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -11576,7 +11576,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -11596,7 +11596,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -11626,7 +11626,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -11636,7 +11636,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -11686,12 +11686,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -11791,7 +11791,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -11811,7 +11811,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -11836,17 +11836,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -12121,12 +12121,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -12141,7 +12141,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -12171,7 +12171,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -12428,8 +12428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9319A55-D19F-406A-AF40-85148FBE0551}">
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="N97" sqref="N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12585,12 +12585,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -12605,7 +12605,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -12625,7 +12625,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -12655,7 +12655,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -12665,7 +12665,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -12715,12 +12715,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -12820,7 +12820,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -12840,7 +12840,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -12865,17 +12865,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -13150,12 +13150,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -13170,7 +13170,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -13200,7 +13200,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -13614,12 +13614,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -13634,7 +13634,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -13654,7 +13654,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -13684,7 +13684,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -13694,7 +13694,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -13744,12 +13744,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -13849,7 +13849,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -13869,7 +13869,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -13894,17 +13894,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -14179,12 +14179,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -14199,7 +14199,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -14229,7 +14229,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -14643,12 +14643,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -14663,7 +14663,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -14683,7 +14683,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -14713,7 +14713,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -14723,7 +14723,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -14773,12 +14773,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -14878,7 +14878,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -14898,7 +14898,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -14923,17 +14923,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -15208,12 +15208,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -15228,7 +15228,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -15258,7 +15258,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -15672,12 +15672,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -15692,7 +15692,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -15712,7 +15712,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -15742,7 +15742,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -15752,7 +15752,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -15802,12 +15802,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -15907,7 +15907,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -15927,7 +15927,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -15952,17 +15952,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -16237,12 +16237,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -16257,7 +16257,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -16287,7 +16287,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -16701,12 +16701,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -16721,7 +16721,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -16741,7 +16741,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -16771,7 +16771,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -16781,7 +16781,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -16831,12 +16831,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -16936,7 +16936,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -16956,7 +16956,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -16981,17 +16981,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -17266,12 +17266,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -17286,7 +17286,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -17316,7 +17316,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -17730,12 +17730,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -17750,7 +17750,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -17770,7 +17770,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -17800,7 +17800,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -17810,7 +17810,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -17860,12 +17860,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -17965,7 +17965,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -17985,7 +17985,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -18010,17 +18010,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -18295,12 +18295,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -18315,7 +18315,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -18345,7 +18345,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -18759,12 +18759,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -18779,7 +18779,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -18799,7 +18799,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -18829,7 +18829,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -18839,7 +18839,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -18889,12 +18889,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -18994,7 +18994,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -19014,7 +19014,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -19039,17 +19039,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -19324,12 +19324,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -19344,7 +19344,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -19374,7 +19374,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -19788,12 +19788,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -19808,7 +19808,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -19828,7 +19828,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -19858,7 +19858,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -19868,7 +19868,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -19918,12 +19918,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -20023,7 +20023,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -20043,7 +20043,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -20068,17 +20068,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -20353,12 +20353,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -20373,7 +20373,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -20403,7 +20403,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -20817,12 +20817,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -20837,7 +20837,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -20857,7 +20857,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -20887,7 +20887,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -20897,7 +20897,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -20947,12 +20947,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -21052,7 +21052,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -21072,7 +21072,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -21097,17 +21097,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -21382,12 +21382,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -21402,7 +21402,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -21432,7 +21432,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -21846,12 +21846,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -21866,7 +21866,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -21886,7 +21886,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -21916,7 +21916,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -21926,7 +21926,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -21976,12 +21976,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -22081,7 +22081,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -22101,7 +22101,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -22126,17 +22126,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -22411,12 +22411,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -22431,7 +22431,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -22461,7 +22461,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -22875,12 +22875,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -22895,7 +22895,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -22915,7 +22915,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -22945,7 +22945,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -22955,7 +22955,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -23005,12 +23005,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -23110,7 +23110,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -23130,7 +23130,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -23155,17 +23155,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -23440,12 +23440,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -23460,7 +23460,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -23490,7 +23490,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -23904,12 +23904,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -23924,7 +23924,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -23944,7 +23944,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -23974,7 +23974,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -23984,7 +23984,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -24034,12 +24034,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -24139,7 +24139,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -24159,7 +24159,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -24184,17 +24184,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -24469,12 +24469,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -24489,7 +24489,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -24519,7 +24519,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -24933,12 +24933,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -24953,7 +24953,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -24973,7 +24973,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -25003,7 +25003,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -25013,7 +25013,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -25063,12 +25063,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -25168,7 +25168,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -25188,7 +25188,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -25213,17 +25213,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -25498,12 +25498,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -25518,7 +25518,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -25548,7 +25548,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -26031,12 +26031,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -26051,7 +26051,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -26071,7 +26071,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -26101,7 +26101,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -26111,7 +26111,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -26161,12 +26161,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -26266,7 +26266,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -26286,7 +26286,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -26311,17 +26311,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -26596,12 +26596,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -26616,7 +26616,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -26646,7 +26646,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -27060,12 +27060,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -27080,7 +27080,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -27100,7 +27100,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -27130,7 +27130,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -27140,7 +27140,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -27190,12 +27190,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -27295,7 +27295,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -27315,7 +27315,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -27340,17 +27340,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -27625,12 +27625,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -27645,7 +27645,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -27675,7 +27675,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -28089,12 +28089,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -28109,7 +28109,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -28129,7 +28129,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -28159,7 +28159,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -28169,7 +28169,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -28219,12 +28219,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -28324,7 +28324,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -28344,7 +28344,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -28369,17 +28369,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -28654,12 +28654,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -28674,7 +28674,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -28704,7 +28704,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -29118,12 +29118,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -29138,7 +29138,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -29158,7 +29158,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -29188,7 +29188,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -29198,7 +29198,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -29248,12 +29248,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -29353,7 +29353,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -29373,7 +29373,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -29398,17 +29398,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -29683,12 +29683,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -29703,7 +29703,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -29733,7 +29733,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -30147,12 +30147,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -30167,7 +30167,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -30187,7 +30187,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -30217,7 +30217,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -30227,7 +30227,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -30277,12 +30277,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -30382,7 +30382,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -30402,7 +30402,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -30427,17 +30427,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -30712,12 +30712,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -30732,7 +30732,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -30762,7 +30762,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -31176,12 +31176,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -31196,7 +31196,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -31216,7 +31216,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -31246,7 +31246,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -31256,7 +31256,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -31306,12 +31306,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -31411,7 +31411,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -31431,7 +31431,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -31456,17 +31456,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -31741,12 +31741,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -31761,7 +31761,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -31791,7 +31791,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -32205,12 +32205,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -32225,7 +32225,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -32245,7 +32245,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -32275,7 +32275,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -32285,7 +32285,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -32335,12 +32335,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -32440,7 +32440,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -32460,7 +32460,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -32485,17 +32485,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -32770,12 +32770,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -32790,7 +32790,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -32820,7 +32820,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -33234,12 +33234,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -33254,7 +33254,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -33274,7 +33274,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -33304,7 +33304,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -33314,7 +33314,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -33364,12 +33364,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -33469,7 +33469,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -33489,7 +33489,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -33514,17 +33514,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -33799,12 +33799,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -33819,7 +33819,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -33849,7 +33849,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -34263,12 +34263,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -34283,7 +34283,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -34303,7 +34303,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -34333,7 +34333,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -34343,7 +34343,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -34393,12 +34393,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -34498,7 +34498,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -34518,7 +34518,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -34543,17 +34543,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -34828,12 +34828,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -34848,7 +34848,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -34878,7 +34878,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -35292,12 +35292,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -35312,7 +35312,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -35332,7 +35332,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -35362,7 +35362,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -35372,7 +35372,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -35422,12 +35422,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -35527,7 +35527,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -35547,7 +35547,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -35572,17 +35572,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -35857,12 +35857,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -35877,7 +35877,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -35907,7 +35907,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -36321,12 +36321,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -36341,7 +36341,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -36361,7 +36361,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -36391,7 +36391,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -36401,7 +36401,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -36451,12 +36451,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -36556,7 +36556,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -36576,7 +36576,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -36601,17 +36601,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -36886,12 +36886,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -36906,7 +36906,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -36936,7 +36936,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -37350,12 +37350,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -37370,7 +37370,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -37390,7 +37390,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -37420,7 +37420,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -37430,7 +37430,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -37480,12 +37480,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -37585,7 +37585,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -37605,7 +37605,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -37630,17 +37630,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -37915,12 +37915,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -37935,7 +37935,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -37965,7 +37965,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -38379,12 +38379,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -38399,7 +38399,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -38419,7 +38419,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -38449,7 +38449,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -38459,7 +38459,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -38509,12 +38509,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -38614,7 +38614,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -38634,7 +38634,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -38659,17 +38659,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -38944,12 +38944,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -38964,7 +38964,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -38994,7 +38994,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -39408,12 +39408,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -39428,7 +39428,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -39448,7 +39448,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -39478,7 +39478,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -39488,7 +39488,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -39538,12 +39538,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -39643,7 +39643,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -39663,7 +39663,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -39688,17 +39688,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -39973,12 +39973,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -39993,7 +39993,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -40023,7 +40023,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -40437,12 +40437,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -40457,7 +40457,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -40477,7 +40477,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -40507,7 +40507,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -40517,7 +40517,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -40567,12 +40567,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -40672,7 +40672,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -40692,7 +40692,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -40717,17 +40717,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -41002,12 +41002,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -41022,7 +41022,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -41052,7 +41052,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -41466,12 +41466,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -41486,7 +41486,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -41506,7 +41506,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -41536,7 +41536,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -41546,7 +41546,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -41596,12 +41596,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -41701,7 +41701,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -41721,7 +41721,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -41746,17 +41746,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -42031,12 +42031,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -42051,7 +42051,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -42081,7 +42081,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -42495,12 +42495,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -42515,7 +42515,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -42535,7 +42535,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -42565,7 +42565,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -42575,7 +42575,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -42625,12 +42625,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -42730,7 +42730,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -42750,7 +42750,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -42775,17 +42775,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -43060,12 +43060,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -43080,7 +43080,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -43110,7 +43110,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -43524,12 +43524,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -43544,7 +43544,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -43564,7 +43564,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -43594,7 +43594,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -43604,7 +43604,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -43654,12 +43654,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -43759,7 +43759,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -43779,7 +43779,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -43804,17 +43804,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -44089,12 +44089,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -44109,7 +44109,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -44139,7 +44139,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -44553,12 +44553,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -44573,7 +44573,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -44593,7 +44593,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -44623,7 +44623,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -44633,7 +44633,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -44683,12 +44683,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -44788,7 +44788,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -44808,7 +44808,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -44833,17 +44833,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -45118,12 +45118,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -45138,7 +45138,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -45168,7 +45168,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -45582,12 +45582,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -45602,7 +45602,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -45622,7 +45622,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -45652,7 +45652,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -45662,7 +45662,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -45712,12 +45712,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -45817,7 +45817,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -45837,7 +45837,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -45862,17 +45862,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -46147,12 +46147,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -46167,7 +46167,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -46197,7 +46197,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -46611,12 +46611,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -46631,7 +46631,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -46651,7 +46651,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -46681,7 +46681,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -46691,7 +46691,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -46741,12 +46741,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -46846,7 +46846,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -46866,7 +46866,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -46891,17 +46891,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -47176,12 +47176,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -47196,7 +47196,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -47226,7 +47226,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -47640,12 +47640,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -47660,7 +47660,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -47680,7 +47680,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -47710,7 +47710,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -47720,7 +47720,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -47770,12 +47770,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -47875,7 +47875,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -47895,7 +47895,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -47920,17 +47920,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -48205,12 +48205,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -48225,7 +48225,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -48255,7 +48255,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -48669,12 +48669,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -48689,7 +48689,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -48709,7 +48709,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -48739,7 +48739,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -48749,7 +48749,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -48799,12 +48799,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -48904,7 +48904,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -48924,7 +48924,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -48949,17 +48949,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -49234,12 +49234,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -49254,7 +49254,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -49284,7 +49284,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -49698,12 +49698,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -49718,7 +49718,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -49738,7 +49738,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -49768,7 +49768,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -49778,7 +49778,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -49828,12 +49828,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -49933,7 +49933,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -49953,7 +49953,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -49978,17 +49978,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -50263,12 +50263,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -50283,7 +50283,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -50313,7 +50313,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
@@ -50727,12 +50727,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>103938</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>104135</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -50747,7 +50747,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>104155</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -50767,7 +50767,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>108972</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -50797,7 +50797,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>113142</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -50807,7 +50807,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>113146</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
@@ -50857,12 +50857,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>115583</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>115584</v>
+        <v>133131</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -50962,7 +50962,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>116934</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -50982,7 +50982,7 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>116965</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -51007,17 +51007,17 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>117803</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>117808</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>117817</v>
+        <v>144088</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -51292,12 +51292,12 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
-        <v>132606</v>
+        <v>142721</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
-        <v>132607</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -51312,7 +51312,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
-        <v>132895</v>
+        <v>117674</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
@@ -51342,7 +51342,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
-        <v>133251</v>
+        <v>118384</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
